--- a/en/application_framework/application_framework/setting_guide/CustomizingConfigurations/charset.xlsx
+++ b/en/application_framework/application_framework/setting_guide/CustomizingConfigurations/charset.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB035D-3595-4BFB-91DC-D46E121AF795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="24795" windowHeight="12330"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,99 +17,82 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>ASCII記号</t>
-    <rPh sb="5" eb="7">
-      <t>キゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Characters permitted by the system</t>
+  </si>
+  <si>
+    <t>Full-width characters</t>
+  </si>
+  <si>
+    <t>Full-width alphabetic characters</t>
+  </si>
+  <si>
+    <t>Full-width numbers</t>
+  </si>
+  <si>
+    <t>Full-width Greek characters</t>
+  </si>
+  <si>
+    <t>Full-width Russian characters</t>
+  </si>
+  <si>
+    <t>Full-width Hiragana</t>
+  </si>
+  <si>
+    <t>Full-width Katakana</t>
+  </si>
+  <si>
+    <t>Full-width space</t>
+  </si>
+  <si>
+    <t>Level 1 full-width symbols</t>
+  </si>
+  <si>
+    <t>Full-width ruled line</t>
+  </si>
+  <si>
+    <t>Level 1 Kanji</t>
+  </si>
+  <si>
+    <t>Level 2 Kanji</t>
+  </si>
+  <si>
+    <t>NEC selected IBM extended</t>
+  </si>
+  <si>
+    <t>NEC special characters</t>
+  </si>
+  <si>
+    <t>IBM extended characters</t>
+  </si>
+  <si>
+    <t>ASCII characters</t>
+  </si>
+  <si>
+    <t>Half-width alphanumeric</t>
+  </si>
+  <si>
+    <t>Half-width numbers</t>
+  </si>
+  <si>
+    <t>Half-width lowercase characters</t>
+  </si>
+  <si>
+    <t>Half-width uppercase letters</t>
+  </si>
+  <si>
+    <t>ASCII symbols</t>
   </si>
   <si>
     <t>halfWidthWhitespace</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ASCII文字</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角カタカナ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角文字</t>
-    <rPh sb="0" eb="4">
-      <t>ゼンカクモジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システム許容文字</t>
-    <rPh sb="4" eb="8">
-      <t>キョヨウモジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角英字</t>
-  </si>
-  <si>
-    <t>全角数字</t>
-  </si>
-  <si>
-    <t>全角ギリシャ文字</t>
-  </si>
-  <si>
-    <t>全角ロシア文字</t>
-  </si>
-  <si>
-    <t>全角ひらがな</t>
-  </si>
-  <si>
-    <t>全角スペース</t>
-  </si>
-  <si>
-    <t>全角罫線</t>
-  </si>
-  <si>
-    <t>第1水準漢字</t>
-  </si>
-  <si>
-    <t>第2水準漢字</t>
-  </si>
-  <si>
-    <t>NEC選定IBM拡張</t>
-  </si>
-  <si>
-    <t>NEC特殊文字</t>
-  </si>
-  <si>
-    <t>IBM拡張文字</t>
-  </si>
-  <si>
-    <t>半角数字</t>
-  </si>
-  <si>
-    <t>半角英小文字</t>
-  </si>
-  <si>
-    <t>半角英大文字</t>
-  </si>
-  <si>
-    <t>半角カナ</t>
-  </si>
-  <si>
-    <t>第1水準全角記号</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Half-width Katakana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,27 +110,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -308,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,46 +297,40 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -370,12 +343,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,9 +426,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,6 +478,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -660,279 +670,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="1.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="2.7265625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="D7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
+      <c r="D15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
+      <c r="E20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
+      <c r="E21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="12" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
